--- a/georgia/data/ssp_georgia_transformation_ippu_mod_250315.xlsx
+++ b/georgia/data/ssp_georgia_transformation_ippu_mod_250315.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\fabian_fuentes\repos\sisepuede_region_nbs\georgia\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BD6BE93-6D53-4146-AD6A-B9E7A2BC0A60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF2D9DAA-1409-497B-9FAE-7E9D91713F80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="34620" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="34640" windowHeight="13920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -1752,14 +1752,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:Q62"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O17" sqref="O17"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1833,7 +1832,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="8" customFormat="1" ht="72" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" s="8" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -1886,7 +1885,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="72" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
@@ -1933,7 +1932,7 @@
       <c r="P3" s="18"/>
       <c r="Q3" s="18"/>
     </row>
-    <row r="4" spans="1:17" ht="72" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
@@ -1980,7 +1979,7 @@
       <c r="P4" s="18"/>
       <c r="Q4" s="18"/>
     </row>
-    <row r="5" spans="1:17" ht="72" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>5</v>
       </c>
@@ -2027,7 +2026,7 @@
       <c r="P5" s="18"/>
       <c r="Q5" s="18"/>
     </row>
-    <row r="6" spans="1:17" ht="72" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
@@ -2080,7 +2079,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="72" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="10" t="s">
         <v>80</v>
       </c>
@@ -2119,7 +2118,7 @@
       <c r="P7" s="18"/>
       <c r="Q7" s="18"/>
     </row>
-    <row r="8" spans="1:17" ht="72" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
         <v>80</v>
       </c>
@@ -2172,7 +2171,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="72" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
         <v>80</v>
       </c>
@@ -2211,7 +2210,7 @@
       <c r="P9" s="18"/>
       <c r="Q9" s="18"/>
     </row>
-    <row r="10" spans="1:17" ht="72" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
         <v>80</v>
       </c>
@@ -2264,7 +2263,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="72" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
         <v>80</v>
       </c>
@@ -2309,7 +2308,7 @@
       <c r="P11" s="18"/>
       <c r="Q11" s="18"/>
     </row>
-    <row r="12" spans="1:17" ht="72" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
         <v>80</v>
       </c>
@@ -2354,7 +2353,7 @@
       <c r="P12" s="18"/>
       <c r="Q12" s="18"/>
     </row>
-    <row r="13" spans="1:17" ht="72" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
         <v>80</v>
       </c>
@@ -2407,7 +2406,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="72" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
         <v>80</v>
       </c>
@@ -2460,7 +2459,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="72" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
         <v>80</v>
       </c>
@@ -2733,7 +2732,7 @@
       <c r="P21" s="18"/>
       <c r="Q21" s="18"/>
     </row>
-    <row r="22" spans="1:17" ht="72" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="4" t="s">
         <v>5</v>
       </c>
@@ -2782,7 +2781,7 @@
       <c r="P22" s="18"/>
       <c r="Q22" s="18"/>
     </row>
-    <row r="23" spans="1:17" ht="72" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="4" t="s">
         <v>5</v>
       </c>
@@ -2821,7 +2820,7 @@
       <c r="P23" s="18"/>
       <c r="Q23" s="18"/>
     </row>
-    <row r="24" spans="1:17" ht="72" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="4" t="s">
         <v>5</v>
       </c>
@@ -2870,7 +2869,7 @@
       <c r="P24" s="18"/>
       <c r="Q24" s="18"/>
     </row>
-    <row r="25" spans="1:17" ht="72" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="4" t="s">
         <v>5</v>
       </c>
@@ -2917,7 +2916,7 @@
       <c r="P25" s="18"/>
       <c r="Q25" s="18"/>
     </row>
-    <row r="26" spans="1:17" ht="72" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="4" t="s">
         <v>5</v>
       </c>
@@ -2964,7 +2963,7 @@
       <c r="P26" s="18"/>
       <c r="Q26" s="18"/>
     </row>
-    <row r="27" spans="1:17" ht="72" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="4" t="s">
         <v>5</v>
       </c>
@@ -3011,7 +3010,7 @@
       <c r="P27" s="18"/>
       <c r="Q27" s="18"/>
     </row>
-    <row r="28" spans="1:17" ht="72" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="4" t="s">
         <v>5</v>
       </c>
@@ -3058,7 +3057,7 @@
       <c r="P28" s="18"/>
       <c r="Q28" s="18"/>
     </row>
-    <row r="29" spans="1:17" ht="72" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="4" t="s">
         <v>5</v>
       </c>
@@ -3105,7 +3104,7 @@
       <c r="P29" s="18"/>
       <c r="Q29" s="18"/>
     </row>
-    <row r="30" spans="1:17" ht="72" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="4" t="s">
         <v>5</v>
       </c>
@@ -3144,7 +3143,7 @@
       <c r="P30" s="18"/>
       <c r="Q30" s="18"/>
     </row>
-    <row r="31" spans="1:17" ht="72" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="4" t="s">
         <v>5</v>
       </c>
@@ -3189,7 +3188,7 @@
       <c r="P31" s="18"/>
       <c r="Q31" s="18"/>
     </row>
-    <row r="32" spans="1:17" ht="72" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="4" t="s">
         <v>5</v>
       </c>
@@ -3234,7 +3233,7 @@
       <c r="P32" s="18"/>
       <c r="Q32" s="18"/>
     </row>
-    <row r="33" spans="1:17" ht="72" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="4" t="s">
         <v>151</v>
       </c>
@@ -3271,7 +3270,7 @@
       <c r="P33" s="18"/>
       <c r="Q33" s="18"/>
     </row>
-    <row r="34" spans="1:17" ht="72" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="4" t="s">
         <v>151</v>
       </c>
@@ -3310,7 +3309,7 @@
       <c r="P34" s="18"/>
       <c r="Q34" s="18"/>
     </row>
-    <row r="35" spans="1:17" ht="72" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="4" t="s">
         <v>80</v>
       </c>
@@ -3355,7 +3354,7 @@
       <c r="P35" s="18"/>
       <c r="Q35" s="18"/>
     </row>
-    <row r="36" spans="1:17" ht="72" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="4" t="s">
         <v>80</v>
       </c>
@@ -3400,7 +3399,7 @@
       <c r="P36" s="18"/>
       <c r="Q36" s="18"/>
     </row>
-    <row r="37" spans="1:17" ht="72" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="4" t="s">
         <v>80</v>
       </c>
@@ -3445,7 +3444,7 @@
       <c r="P37" s="18"/>
       <c r="Q37" s="18"/>
     </row>
-    <row r="38" spans="1:17" ht="72" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="4" t="s">
         <v>5</v>
       </c>
@@ -3484,7 +3483,7 @@
       <c r="P38" s="18"/>
       <c r="Q38" s="18"/>
     </row>
-    <row r="39" spans="1:17" ht="72" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="4" t="s">
         <v>5</v>
       </c>
@@ -3523,7 +3522,7 @@
       <c r="P39" s="18"/>
       <c r="Q39" s="18"/>
     </row>
-    <row r="40" spans="1:17" ht="72" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="4" t="s">
         <v>80</v>
       </c>
@@ -3562,7 +3561,7 @@
       <c r="P40" s="18"/>
       <c r="Q40" s="18"/>
     </row>
-    <row r="41" spans="1:17" ht="72" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="4" t="s">
         <v>80</v>
       </c>
@@ -3607,7 +3606,7 @@
       <c r="P41" s="18"/>
       <c r="Q41" s="18"/>
     </row>
-    <row r="42" spans="1:17" ht="72" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="4" t="s">
         <v>80</v>
       </c>
@@ -3652,7 +3651,7 @@
       <c r="P42" s="18"/>
       <c r="Q42" s="18"/>
     </row>
-    <row r="43" spans="1:17" ht="72" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="4" t="s">
         <v>80</v>
       </c>
@@ -3697,7 +3696,7 @@
       <c r="P43" s="18"/>
       <c r="Q43" s="18"/>
     </row>
-    <row r="44" spans="1:17" ht="72" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="4" t="s">
         <v>80</v>
       </c>
@@ -3750,7 +3749,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="45" spans="1:17" ht="72" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="4" t="s">
         <v>80</v>
       </c>
@@ -3795,7 +3794,7 @@
       <c r="P45" s="18"/>
       <c r="Q45" s="18"/>
     </row>
-    <row r="46" spans="1:17" ht="72" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="4" t="s">
         <v>80</v>
       </c>
@@ -3840,7 +3839,7 @@
       <c r="P46" s="18"/>
       <c r="Q46" s="18"/>
     </row>
-    <row r="47" spans="1:17" ht="72" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="4" t="s">
         <v>80</v>
       </c>
@@ -3885,7 +3884,7 @@
       <c r="P47" s="4"/>
       <c r="Q47" s="18"/>
     </row>
-    <row r="48" spans="1:17" ht="72" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="4" t="s">
         <v>80</v>
       </c>
@@ -3938,7 +3937,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="49" spans="1:17" ht="72" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="4" t="s">
         <v>80</v>
       </c>
@@ -3991,7 +3990,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="50" spans="1:17" ht="72" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="4" t="s">
         <v>80</v>
       </c>
@@ -4122,7 +4121,7 @@
       <c r="P52" s="18"/>
       <c r="Q52" s="18"/>
     </row>
-    <row r="53" spans="1:17" ht="72" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="4" t="s">
         <v>57</v>
       </c>
@@ -4167,7 +4166,7 @@
       <c r="P53" s="18"/>
       <c r="Q53" s="18"/>
     </row>
-    <row r="54" spans="1:17" ht="72" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="4" t="s">
         <v>57</v>
       </c>
@@ -4212,7 +4211,7 @@
       <c r="P54" s="18"/>
       <c r="Q54" s="18"/>
     </row>
-    <row r="55" spans="1:17" ht="72" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="4" t="s">
         <v>57</v>
       </c>
@@ -4257,7 +4256,7 @@
       <c r="P55" s="18"/>
       <c r="Q55" s="18"/>
     </row>
-    <row r="56" spans="1:17" ht="72" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="4" t="s">
         <v>57</v>
       </c>
@@ -4296,7 +4295,7 @@
       <c r="P56" s="18"/>
       <c r="Q56" s="18"/>
     </row>
-    <row r="57" spans="1:17" ht="72" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="4" t="s">
         <v>57</v>
       </c>
@@ -4349,7 +4348,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="58" spans="1:17" ht="72" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="4" t="s">
         <v>57</v>
       </c>
@@ -4402,7 +4401,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="59" spans="1:17" ht="72" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="4" t="s">
         <v>57</v>
       </c>
@@ -4455,7 +4454,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="60" spans="1:17" ht="72" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="4" t="s">
         <v>57</v>
       </c>
@@ -4508,7 +4507,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="61" spans="1:17" ht="72" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="4" t="s">
         <v>57</v>
       </c>
@@ -4561,7 +4560,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="62" spans="1:17" ht="72" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="4" t="s">
         <v>57</v>
       </c>
@@ -4615,13 +4614,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Q62" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="IPPU"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:Q62" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P62">
     <sortCondition ref="B2:B62"/>
   </sortState>
